--- a/2_semester/linear_regression/paraplyer.xlsx
+++ b/2_semester/linear_regression/paraplyer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="460" documentId="8_{F124977E-C96C-423E-B176-4BF46C2B7600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1278C45C-687A-4ED5-BF62-0720ADCB4055}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="758" activeTab="5" xr2:uid="{4DDACC32-F690-49A8-A470-CF407D082F8D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="758" activeTab="1" xr2:uid="{4DDACC32-F690-49A8-A470-CF407D082F8D}"/>
   </bookViews>
   <sheets>
     <sheet name="ParaplyerData" sheetId="2" r:id="rId1"/>
@@ -327,10 +327,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -2119,8 +2119,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Tekstfelt 2">
@@ -2220,7 +2220,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Tekstfelt 2">
@@ -2342,8 +2342,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCAA024B-010D-4E14-9152-8EA343BE67CF}" name="Løn" displayName="Løn" ref="A1:B31" totalsRowShown="0">
   <autoFilter ref="A1:B31" xr:uid="{DCAA024B-010D-4E14-9152-8EA343BE67CF}"/>
   <tableColumns count="2">
-    <tableColumn id="4" xr3:uid="{DD5F7A99-A462-4B2C-8317-6ACF3760F8E5}" name="Erfaring (År)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C4233A90-1EB9-4C0C-B4E3-C7EF52FC3936}" name="Løn" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DD5F7A99-A462-4B2C-8317-6ACF3760F8E5}" name="Erfaring (År)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C4233A90-1EB9-4C0C-B4E3-C7EF52FC3936}" name="Løn" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3123,7 +3123,7 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3182,14 +3182,14 @@
         <v>82</v>
       </c>
       <c r="D4" s="4">
-        <f>$I$29</f>
+        <f t="shared" ref="D4:D27" si="0">$I$29</f>
         <v>155</v>
       </c>
       <c r="E4" s="4">
         <v>15</v>
       </c>
       <c r="F4" s="15">
-        <f>$I$30</f>
+        <f t="shared" ref="F4:F27" si="1">$I$30</f>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3204,14 +3204,14 @@
         <v>92.5</v>
       </c>
       <c r="D5" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E5" s="4">
         <v>25</v>
       </c>
       <c r="F5" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3226,14 +3226,14 @@
         <v>83.2</v>
       </c>
       <c r="D6" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E6" s="4">
         <v>17</v>
       </c>
       <c r="F6" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3248,14 +3248,14 @@
         <v>97.7</v>
       </c>
       <c r="D7" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E7" s="4">
         <v>28</v>
       </c>
       <c r="F7" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3270,14 +3270,14 @@
         <v>131.9</v>
       </c>
       <c r="D8" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E8" s="4">
         <v>41</v>
       </c>
       <c r="F8" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3292,14 +3292,14 @@
         <v>141.30000000000001</v>
       </c>
       <c r="D9" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E9" s="4">
         <v>47</v>
       </c>
       <c r="F9" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3314,14 +3314,14 @@
         <v>165.4</v>
       </c>
       <c r="D10" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E10" s="4">
         <v>50</v>
       </c>
       <c r="F10" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3336,14 +3336,14 @@
         <v>140</v>
       </c>
       <c r="D11" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E11" s="4">
         <v>46</v>
       </c>
       <c r="F11" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3358,14 +3358,14 @@
         <v>126.7</v>
       </c>
       <c r="D12" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E12" s="4">
         <v>37</v>
       </c>
       <c r="F12" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3380,14 +3380,14 @@
         <v>97.8</v>
       </c>
       <c r="D13" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E13" s="4">
         <v>22</v>
       </c>
       <c r="F13" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3402,14 +3402,14 @@
         <v>86.2</v>
       </c>
       <c r="D14" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E14" s="4">
         <v>20</v>
       </c>
       <c r="F14" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3424,14 +3424,14 @@
         <v>99.6</v>
       </c>
       <c r="D15" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E15" s="4">
         <v>30</v>
       </c>
       <c r="F15" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3446,14 +3446,14 @@
         <v>87</v>
       </c>
       <c r="D16" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E16" s="4">
         <v>14</v>
       </c>
       <c r="F16" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3468,14 +3468,14 @@
         <v>97.5</v>
       </c>
       <c r="D17" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E17" s="4">
         <v>27</v>
       </c>
       <c r="F17" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3490,14 +3490,14 @@
         <v>88.2</v>
       </c>
       <c r="D18" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E18" s="4">
         <v>14</v>
       </c>
       <c r="F18" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3512,14 +3512,14 @@
         <v>102.7</v>
       </c>
       <c r="D19" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E19" s="4">
         <v>30</v>
       </c>
       <c r="F19" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3534,14 +3534,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E20" s="4">
         <v>43</v>
       </c>
       <c r="F20" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3556,14 +3556,14 @@
         <v>146.30000000000001</v>
       </c>
       <c r="D21" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E21" s="4">
         <v>49</v>
       </c>
       <c r="F21" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
     </row>
@@ -3578,14 +3578,14 @@
         <v>160</v>
       </c>
       <c r="D22" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E22" s="4">
         <v>49</v>
       </c>
       <c r="F22" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
       <c r="L22" s="13" t="s">
@@ -3603,14 +3603,14 @@
         <v>145</v>
       </c>
       <c r="D23" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E23" s="4">
         <v>44</v>
       </c>
       <c r="F23" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
       <c r="H23" s="9" t="s">
@@ -3639,14 +3639,14 @@
         <v>131.69999999999999</v>
       </c>
       <c r="D24" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E24" s="4">
         <v>39</v>
       </c>
       <c r="F24" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
       <c r="H24" s="9" t="s">
@@ -3675,14 +3675,14 @@
         <v>118</v>
       </c>
       <c r="D25" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E25" s="4">
         <v>36</v>
       </c>
       <c r="F25" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
       <c r="H25" s="9" t="s">
@@ -3711,14 +3711,14 @@
         <v>91.2</v>
       </c>
       <c r="D26" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E26" s="4">
         <v>20</v>
       </c>
       <c r="F26" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
       <c r="K26" s="11"/>
@@ -3734,14 +3734,14 @@
         <v>104.6</v>
       </c>
       <c r="D27" s="4">
-        <f>$I$29</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="E27" s="4">
         <v>32</v>
       </c>
       <c r="F27" s="15">
-        <f>$I$30</f>
+        <f t="shared" si="1"/>
         <v>50.676095589983014</v>
       </c>
       <c r="H27" s="9" t="s">
@@ -5680,7 +5680,7 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/2_semester/linear_regression/paraplyer.xlsx
+++ b/2_semester/linear_regression/paraplyer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ac1f8984512bd16/Dokumenter/GitHub/keaonline/2_semester/linear_regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="8_{F124977E-C96C-423E-B176-4BF46C2B7600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1278C45C-687A-4ED5-BF62-0720ADCB4055}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="8_{F124977E-C96C-423E-B176-4BF46C2B7600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B8659DD-1FAD-4EA1-B780-8D7035948BA9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="758" activeTab="1" xr2:uid="{4DDACC32-F690-49A8-A470-CF407D082F8D}"/>
   </bookViews>
@@ -2290,10 +2290,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{305870F5-1FBB-436A-BE16-9E7D058E2CA3}" name="Paraplysalg" displayName="Paraplysalg" ref="A3:F27" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="6">
@@ -3123,8 +3119,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
